--- a/public/RMT-expense-analysis-chunk2.xlsx
+++ b/public/RMT-expense-analysis-chunk2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/expense_management_analytics-RMT-v2/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDD565E-57E3-A54F-8280-FA5AA890F1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66095C93-7C91-8A4B-A4FA-2D32DCDCBCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="21200" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="105">
   <si>
     <t>Category</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>2025-05-01 00:00:00</t>
-  </si>
-  <si>
-    <t>Jun 2025</t>
   </si>
   <si>
     <t>Excess_Jan 2025</t>
@@ -396,9 +393,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -755,58 +755,58 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2">
+        <v>45809</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>141494.04999999999</v>
@@ -863,18 +863,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U2">
         <v>2</v>
       </c>
       <c r="V2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>220.02</v>
@@ -931,18 +931,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U3">
         <v>49</v>
       </c>
       <c r="V3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -999,18 +999,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U4">
         <v>8</v>
       </c>
       <c r="V4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1067,18 +1067,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U5">
         <v>15</v>
       </c>
       <c r="V5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1135,18 +1135,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U6">
         <v>22</v>
       </c>
       <c r="V6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1203,18 +1203,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U7">
         <v>22</v>
       </c>
       <c r="V7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>11298.13</v>
@@ -1271,18 +1271,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U8">
         <v>75</v>
       </c>
       <c r="V8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>6112.59</v>
@@ -1339,18 +1339,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U9">
         <v>74</v>
       </c>
       <c r="V9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>6500.13</v>
@@ -1407,18 +1407,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U10">
         <v>31</v>
       </c>
       <c r="V10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>6653.87</v>
@@ -1475,18 +1475,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U11">
         <v>68</v>
       </c>
       <c r="V11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>2738.62</v>
@@ -1543,18 +1543,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U12">
         <v>61</v>
       </c>
       <c r="V12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>968</v>
@@ -1611,18 +1611,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U13">
         <v>50</v>
       </c>
       <c r="V13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>34271.339999999997</v>
@@ -1679,18 +1679,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U14">
         <v>78</v>
       </c>
       <c r="V14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1747,18 +1747,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U15">
         <v>22</v>
       </c>
       <c r="V15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>15541.84</v>
@@ -1815,18 +1815,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U16">
         <v>76</v>
       </c>
       <c r="V16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1883,18 +1883,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U17">
         <v>44</v>
       </c>
       <c r="V17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>15541.84</v>
@@ -1951,18 +1951,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U18">
         <v>77</v>
       </c>
       <c r="V18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>16000</v>
@@ -2019,18 +2019,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U19">
         <v>13</v>
       </c>
       <c r="V19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>123.45</v>
@@ -2087,18 +2087,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U20">
         <v>17</v>
       </c>
       <c r="V20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <v>737</v>
@@ -2155,18 +2155,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U21">
         <v>16</v>
       </c>
       <c r="V21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>860.45</v>
@@ -2223,18 +2223,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U22">
         <v>14</v>
       </c>
       <c r="V22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <v>711.34</v>
@@ -2291,18 +2291,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U23">
         <v>46</v>
       </c>
       <c r="V23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24">
         <v>204.97</v>
@@ -2359,18 +2359,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U24">
         <v>20</v>
       </c>
       <c r="V24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>2937.12</v>
@@ -2427,18 +2427,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U25">
         <v>7</v>
       </c>
       <c r="V25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26">
         <v>967.37</v>
@@ -2495,18 +2495,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U26">
         <v>57</v>
       </c>
       <c r="V26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27">
         <v>940.88</v>
@@ -2563,18 +2563,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U27">
         <v>56</v>
       </c>
       <c r="V27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>4545.8599999999997</v>
@@ -2631,18 +2631,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U28">
         <v>52</v>
       </c>
       <c r="V28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29">
         <v>1250.69</v>
@@ -2699,18 +2699,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U29">
         <v>51</v>
       </c>
       <c r="V29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30">
         <v>6737.43</v>
@@ -2767,18 +2767,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U30">
         <v>62</v>
       </c>
       <c r="V30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2835,18 +2835,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U31">
         <v>18</v>
       </c>
       <c r="V31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2903,18 +2903,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U32">
         <v>10</v>
       </c>
       <c r="V32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33">
         <v>539.88</v>
@@ -2971,18 +2971,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U33">
         <v>32</v>
       </c>
       <c r="V33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3039,18 +3039,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U34">
         <v>22</v>
       </c>
       <c r="V34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35">
         <v>5307.36</v>
@@ -3107,18 +3107,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U35">
         <v>12</v>
       </c>
       <c r="V35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36">
         <v>264.38</v>
@@ -3175,18 +3175,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U36">
         <v>9</v>
       </c>
       <c r="V36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3243,18 +3243,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U37">
         <v>6</v>
       </c>
       <c r="V37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38">
         <v>5571.74</v>
@@ -3311,18 +3311,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U38">
         <v>5</v>
       </c>
       <c r="V38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3379,18 +3379,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U39">
         <v>22</v>
       </c>
       <c r="V39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40">
         <v>76.099999999999994</v>
@@ -3447,18 +3447,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U40">
         <v>34</v>
       </c>
       <c r="V40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41">
         <v>157.29</v>
@@ -3515,18 +3515,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U41">
         <v>21</v>
       </c>
       <c r="V41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42">
         <v>233.39</v>
@@ -3583,18 +3583,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U42">
         <v>33</v>
       </c>
       <c r="V42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43">
         <v>5998.14</v>
@@ -3651,18 +3651,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U43">
         <v>69</v>
       </c>
       <c r="V43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44">
         <v>579.63</v>
@@ -3719,18 +3719,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U44">
         <v>54</v>
       </c>
       <c r="V44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45">
         <v>3691.42</v>
@@ -3787,18 +3787,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U45">
         <v>55</v>
       </c>
       <c r="V45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46">
         <v>10269.19</v>
@@ -3855,18 +3855,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U46">
         <v>73</v>
       </c>
       <c r="V46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B47">
         <v>396.58</v>
@@ -3923,18 +3923,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U47">
         <v>43</v>
       </c>
       <c r="V47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3991,18 +3991,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U48">
         <v>22</v>
       </c>
       <c r="V48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49">
         <v>1488.66</v>
@@ -4059,18 +4059,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U49">
         <v>58</v>
       </c>
       <c r="V49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50">
         <v>578.99</v>
@@ -4127,18 +4127,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U50">
         <v>63</v>
       </c>
       <c r="V50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51">
         <v>2067.65</v>
@@ -4195,18 +4195,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U51">
         <v>66</v>
       </c>
       <c r="V51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52">
         <v>799</v>
@@ -4263,18 +4263,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U52">
         <v>47</v>
       </c>
       <c r="V52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B53">
         <v>325.63</v>
@@ -4331,18 +4331,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U53">
         <v>48</v>
       </c>
       <c r="V53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4399,18 +4399,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U54">
         <v>36</v>
       </c>
       <c r="V54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4467,18 +4467,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U55">
         <v>19</v>
       </c>
       <c r="V55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4535,18 +4535,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U56">
         <v>35</v>
       </c>
       <c r="V56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B57">
         <v>1333.34</v>
@@ -4603,18 +4603,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U57">
         <v>60</v>
       </c>
       <c r="V57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4671,18 +4671,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U58">
         <v>42</v>
       </c>
       <c r="V58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4739,18 +4739,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U59">
         <v>3</v>
       </c>
       <c r="V59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4807,18 +4807,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U60">
         <v>4</v>
       </c>
       <c r="V60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61">
         <v>2648.43</v>
@@ -4875,18 +4875,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U61">
         <v>59</v>
       </c>
       <c r="V61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B62">
         <v>380.77</v>
@@ -4943,18 +4943,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U62">
         <v>40</v>
       </c>
       <c r="V62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63">
         <v>172</v>
@@ -5011,18 +5011,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U63">
         <v>39</v>
       </c>
       <c r="V63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B64">
         <v>700</v>
@@ -5079,18 +5079,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U64">
         <v>11</v>
       </c>
       <c r="V64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -5147,18 +5147,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U65">
         <v>22</v>
       </c>
       <c r="V65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B66">
         <v>100</v>
@@ -5215,18 +5215,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U66">
         <v>37</v>
       </c>
       <c r="V66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B67">
         <v>6967.81</v>
@@ -5283,18 +5283,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U67">
         <v>64</v>
       </c>
       <c r="V67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -5351,18 +5351,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U68">
         <v>41</v>
       </c>
       <c r="V68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B69">
         <v>7067.81</v>
@@ -5419,18 +5419,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U69">
         <v>65</v>
       </c>
       <c r="V69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B70">
         <v>125</v>
@@ -5487,18 +5487,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U70">
         <v>38</v>
       </c>
       <c r="V70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B71">
         <v>14421.21</v>
@@ -5555,18 +5555,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U71">
         <v>71</v>
       </c>
       <c r="V71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B72">
         <v>14546.21</v>
@@ -5623,18 +5623,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U72">
         <v>72</v>
       </c>
       <c r="V72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -5691,18 +5691,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U73">
         <v>22</v>
       </c>
       <c r="V73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B74">
         <v>604.98</v>
@@ -5759,18 +5759,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U74">
         <v>53</v>
       </c>
       <c r="V74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B75">
         <v>211.54</v>
@@ -5827,18 +5827,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U75">
         <v>45</v>
       </c>
       <c r="V75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B76">
         <v>3193.66</v>
@@ -5895,18 +5895,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U76">
         <v>67</v>
       </c>
       <c r="V76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B77">
         <v>4010.18</v>
@@ -5963,18 +5963,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U77">
         <v>70</v>
       </c>
       <c r="V77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -6031,18 +6031,18 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U78">
         <v>22</v>
       </c>
       <c r="V78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B79">
         <v>12470.41</v>
@@ -6099,13 +6099,13 @@
         <v>-3327.4642857142871</v>
       </c>
       <c r="T79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U79">
         <v>1</v>
       </c>
       <c r="V79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/public/RMT-expense-analysis-chunk2.xlsx
+++ b/public/RMT-expense-analysis-chunk2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/expense_management_analytics-RMT-v2/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66095C93-7C91-8A4B-A4FA-2D32DCDCBCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA93B0F6-A501-3043-ACBE-2A17F59E002D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="21200" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2260" yWindow="760" windowWidth="24320" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="106">
   <si>
     <t>Category</t>
   </si>
@@ -40,6 +40,21 @@
     <t>2025-05-01 00:00:00</t>
   </si>
   <si>
+    <t>Jun 2025</t>
+  </si>
+  <si>
+    <t>Expense Trend Slope</t>
+  </si>
+  <si>
+    <t>Gross Profit Trend Slope</t>
+  </si>
+  <si>
+    <t>Trend Diagnostic</t>
+  </si>
+  <si>
+    <t>Ranking Priority</t>
+  </si>
+  <si>
     <t>Excess_Jan 2025</t>
   </si>
   <si>
@@ -70,18 +85,6 @@
     <t>% of Months Opposite Direction than Profit</t>
   </si>
   <si>
-    <t>Expense Trend Slope</t>
-  </si>
-  <si>
-    <t>Gross Profit Trend Slope</t>
-  </si>
-  <si>
-    <t>Trend Diagnostic</t>
-  </si>
-  <si>
-    <t>Ranking Priority</t>
-  </si>
-  <si>
     <t>Anchor Month Scenario</t>
   </si>
   <si>
@@ -328,7 +331,7 @@
     <t>Expenses trending flat</t>
   </si>
   <si>
-    <t>Profit↑ 9.7%, Expense didn't rise as much</t>
+    <t>Profit↑ 9.7%, Expense did not rise as much</t>
   </si>
   <si>
     <t>Below Threshold</t>
@@ -393,12 +396,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -719,21 +719,21 @@
     <col min="4" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -755,58 +755,58 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
-        <v>45809</v>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>141494.04999999999</v>
@@ -827,16 +827,16 @@
         <v>137270.12</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>-3371.47457142857</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J2" t="s">
+        <v>100</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -857,24 +857,24 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-3371.47457142857</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T2" t="s">
-        <v>99</v>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>220.02</v>
@@ -895,54 +895,54 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-81.831428571428589</v>
       </c>
       <c r="I3">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>49</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>398.27981777279672</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>398.27981777279672</v>
       </c>
-      <c r="O3">
+      <c r="S3">
         <v>20</v>
       </c>
-      <c r="P3">
+      <c r="T3">
         <v>20</v>
       </c>
-      <c r="Q3">
-        <v>40</v>
-      </c>
-      <c r="R3">
-        <v>-81.831428571428589</v>
-      </c>
-      <c r="S3">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T3" t="s">
-        <v>99</v>
-      </c>
       <c r="U3">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="V3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -963,54 +963,54 @@
         <v>858.88</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>106.9828571428571</v>
       </c>
       <c r="I4">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>56.885696248703923</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>56.885696248703923</v>
       </c>
-      <c r="O4">
+      <c r="S4">
         <v>20</v>
       </c>
-      <c r="P4">
+      <c r="T4">
         <v>20</v>
       </c>
-      <c r="Q4">
-        <v>40</v>
-      </c>
-      <c r="R4">
-        <v>106.9828571428571</v>
-      </c>
-      <c r="S4">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T4" t="s">
-        <v>100</v>
-      </c>
       <c r="U4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="V4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>286.31060469802873</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1058,27 +1058,27 @@
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>286.31060469802873</v>
+      </c>
+      <c r="S5">
         <v>20</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T5" t="s">
-        <v>101</v>
+      <c r="T5">
+        <v>20</v>
       </c>
       <c r="U5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J6" t="s">
+        <v>102</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1132,21 +1132,21 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T6" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1170,13 +1170,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1200,21 +1200,21 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T7" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>11298.13</v>
@@ -1235,54 +1235,54 @@
         <v>10124.11</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>320.82857142857148</v>
       </c>
       <c r="I8">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8">
+        <v>75</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>2223.799827167386</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>10108.544107342181</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>12332.34393450957</v>
       </c>
-      <c r="O8">
-        <v>40</v>
-      </c>
-      <c r="P8">
-        <v>40</v>
-      </c>
-      <c r="Q8">
+      <c r="S8">
+        <v>40</v>
+      </c>
+      <c r="T8">
+        <v>40</v>
+      </c>
+      <c r="U8">
         <v>80</v>
       </c>
-      <c r="R8">
-        <v>320.82857142857148</v>
-      </c>
-      <c r="S8">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T8" t="s">
-        <v>100</v>
-      </c>
-      <c r="U8">
-        <v>75</v>
-      </c>
       <c r="V8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>6112.59</v>
@@ -1303,54 +1303,54 @@
         <v>2746.19</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>-718.92685714285722</v>
       </c>
       <c r="I9">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>74</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>834.69876065730205</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>2532.7334507224041</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>3367.4322113797061</v>
       </c>
-      <c r="O9">
-        <v>40</v>
-      </c>
-      <c r="P9">
-        <v>40</v>
-      </c>
-      <c r="Q9">
+      <c r="S9">
+        <v>40</v>
+      </c>
+      <c r="T9">
+        <v>40</v>
+      </c>
+      <c r="U9">
         <v>60</v>
       </c>
-      <c r="R9">
-        <v>-718.92685714285722</v>
-      </c>
-      <c r="S9">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T9" t="s">
-        <v>99</v>
-      </c>
-      <c r="U9">
-        <v>74</v>
-      </c>
       <c r="V9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>6500.13</v>
@@ -1371,54 +1371,54 @@
         <v>7730.62</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>486.25085714285711</v>
       </c>
       <c r="I10">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>1974.438415141756</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>6950.013330247868</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>8924.4517453896242</v>
       </c>
-      <c r="O10">
-        <v>40</v>
-      </c>
-      <c r="P10">
-        <v>40</v>
-      </c>
-      <c r="Q10">
+      <c r="S10">
+        <v>40</v>
+      </c>
+      <c r="T10">
+        <v>40</v>
+      </c>
+      <c r="U10">
         <v>80</v>
       </c>
-      <c r="R10">
-        <v>486.25085714285711</v>
-      </c>
-      <c r="S10">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T10" t="s">
-        <v>100</v>
-      </c>
-      <c r="U10">
-        <v>31</v>
-      </c>
       <c r="V10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>6653.87</v>
@@ -1439,54 +1439,54 @@
         <v>5461.56</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-79.557999999999879</v>
       </c>
       <c r="I11">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>68</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>1591.3205539672711</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>115.7737453729314</v>
       </c>
-      <c r="L11">
+      <c r="P11">
         <v>3823.4874269608108</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>5530.5817263010131</v>
       </c>
-      <c r="O11">
+      <c r="S11">
         <v>60</v>
       </c>
-      <c r="P11">
-        <v>40</v>
-      </c>
-      <c r="Q11">
+      <c r="T11">
+        <v>40</v>
+      </c>
+      <c r="U11">
         <v>80</v>
       </c>
-      <c r="R11">
-        <v>-79.557999999999879</v>
-      </c>
-      <c r="S11">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T11" t="s">
-        <v>99</v>
-      </c>
-      <c r="U11">
-        <v>68</v>
-      </c>
       <c r="V11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>2738.62</v>
@@ -1507,54 +1507,54 @@
         <v>2182.7399999999998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>-37.927142857142897</v>
       </c>
       <c r="I12">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>61</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>557.36610921251076</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>1963.746481559826</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>2521.1125907723372</v>
       </c>
-      <c r="O12">
-        <v>40</v>
-      </c>
-      <c r="P12">
-        <v>40</v>
-      </c>
-      <c r="Q12">
+      <c r="S12">
+        <v>40</v>
+      </c>
+      <c r="T12">
+        <v>40</v>
+      </c>
+      <c r="U12">
         <v>100</v>
       </c>
-      <c r="R12">
-        <v>-37.927142857142897</v>
-      </c>
-      <c r="S12">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T12" t="s">
-        <v>99</v>
-      </c>
-      <c r="U12">
-        <v>61</v>
-      </c>
       <c r="V12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>968</v>
@@ -1575,54 +1575,54 @@
         <v>820</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="I13">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>67.307079374907858</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>655.56700289853814</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>722.87408227344599</v>
       </c>
-      <c r="O13">
-        <v>40</v>
-      </c>
-      <c r="P13">
-        <v>40</v>
-      </c>
-      <c r="Q13">
-        <v>40</v>
-      </c>
-      <c r="R13">
-        <v>8.4000000000000057</v>
-      </c>
       <c r="S13">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T13" t="s">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="T13">
+        <v>40</v>
       </c>
       <c r="U13">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="V13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>34271.339999999997</v>
@@ -1643,54 +1643,54 @@
         <v>29065.22</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>-20.932571428570789</v>
       </c>
       <c r="I14">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>78</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>7248.9307455211347</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>26034.091799731628</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>33283.022545252767</v>
       </c>
-      <c r="O14">
-        <v>40</v>
-      </c>
-      <c r="P14">
-        <v>40</v>
-      </c>
-      <c r="Q14">
+      <c r="S14">
+        <v>40</v>
+      </c>
+      <c r="T14">
+        <v>40</v>
+      </c>
+      <c r="U14">
         <v>100</v>
       </c>
-      <c r="R14">
-        <v>-20.932571428570789</v>
-      </c>
-      <c r="S14">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T14" t="s">
-        <v>99</v>
-      </c>
-      <c r="U14">
-        <v>78</v>
-      </c>
       <c r="V14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1714,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J15" t="s">
+        <v>102</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1744,21 +1744,21 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T15" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>15541.84</v>
@@ -1779,54 +1779,54 @@
         <v>8041.35</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>-1104.8791428571431</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>3929.9160890843609</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J16" t="s">
+        <v>100</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>3929.9160890843632</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>11153.363983170089</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>15083.28007225446</v>
       </c>
-      <c r="O16">
-        <v>40</v>
-      </c>
-      <c r="P16">
+      <c r="S16">
+        <v>40</v>
+      </c>
+      <c r="T16">
         <v>20</v>
       </c>
-      <c r="Q16">
+      <c r="U16">
         <v>60</v>
       </c>
-      <c r="R16">
-        <v>-1104.8791428571431</v>
-      </c>
-      <c r="S16">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T16" t="s">
-        <v>99</v>
-      </c>
-      <c r="U16">
-        <v>76</v>
-      </c>
       <c r="V16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1850,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J17" t="s">
+        <v>102</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1874,27 +1874,27 @@
         <v>0</v>
       </c>
       <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>20</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T17" t="s">
-        <v>101</v>
+      <c r="T17">
+        <v>20</v>
       </c>
       <c r="U17">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>15541.84</v>
@@ -1915,54 +1915,54 @@
         <v>8041.35</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>-1060.374571428571</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>3929.9160890843609</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J18" t="s">
+        <v>100</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>3929.9160890843632</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>11672.583983170091</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>15602.500072254459</v>
       </c>
-      <c r="O18">
-        <v>40</v>
-      </c>
-      <c r="P18">
+      <c r="S18">
+        <v>40</v>
+      </c>
+      <c r="T18">
         <v>20</v>
       </c>
-      <c r="Q18">
+      <c r="U18">
         <v>60</v>
       </c>
-      <c r="R18">
-        <v>-1060.374571428571</v>
-      </c>
-      <c r="S18">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T18" t="s">
-        <v>99</v>
-      </c>
-      <c r="U18">
-        <v>77</v>
-      </c>
       <c r="V18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>16000</v>
@@ -1983,54 +1983,54 @@
         <v>16240</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I19">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J19" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19">
+        <v>13</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>2203.4227995852539</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>7065.6639142611457</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>9269.0867138464</v>
       </c>
-      <c r="O19">
-        <v>40</v>
-      </c>
-      <c r="P19">
-        <v>40</v>
-      </c>
-      <c r="Q19">
-        <v>40</v>
-      </c>
-      <c r="R19">
-        <v>96</v>
-      </c>
       <c r="S19">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T19" t="s">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="T19">
+        <v>40</v>
       </c>
       <c r="U19">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="V19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>123.45</v>
@@ -2051,54 +2051,54 @@
         <v>123.45</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.781714285714286</v>
       </c>
       <c r="I20">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J20" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>25.91078403805</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>52.494504730725318</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>78.405288768775321</v>
       </c>
-      <c r="O20">
-        <v>40</v>
-      </c>
-      <c r="P20">
-        <v>40</v>
-      </c>
-      <c r="Q20">
-        <v>60</v>
-      </c>
-      <c r="R20">
-        <v>3.781714285714286</v>
-      </c>
       <c r="S20">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T20" t="s">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="T20">
+        <v>40</v>
       </c>
       <c r="U20">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="V20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>737</v>
@@ -2119,54 +2119,54 @@
         <v>770</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.1428571428571423</v>
       </c>
       <c r="I21">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J21" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21">
+        <v>16</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>101.49516270589579</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>294.28016402386061</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>395.77532672975639</v>
       </c>
-      <c r="O21">
-        <v>40</v>
-      </c>
-      <c r="P21">
-        <v>40</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>5.1428571428571423</v>
-      </c>
       <c r="S21">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T21" t="s">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="T21">
+        <v>40</v>
       </c>
       <c r="U21">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>860.45</v>
@@ -2187,54 +2187,54 @@
         <v>893.45</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.9245714285714293</v>
       </c>
       <c r="I22">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J22" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22">
+        <v>14</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>127.40594674394571</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>79.858408302356111</v>
       </c>
-      <c r="L22">
+      <c r="P22">
         <v>346.77466875458589</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>554.03902380088778</v>
       </c>
-      <c r="O22">
+      <c r="S22">
         <v>60</v>
       </c>
-      <c r="P22">
-        <v>40</v>
-      </c>
-      <c r="Q22">
-        <v>40</v>
-      </c>
-      <c r="R22">
-        <v>8.9245714285714293</v>
-      </c>
-      <c r="S22">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T22" t="s">
-        <v>100</v>
+      <c r="T22">
+        <v>40</v>
       </c>
       <c r="U22">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="V22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>711.34</v>
@@ -2255,54 +2255,54 @@
         <v>348.74</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>-45.560285714285719</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J23" t="s">
+        <v>100</v>
       </c>
       <c r="K23">
+        <v>46</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>157.1338204411293</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>157.1338204411293</v>
       </c>
-      <c r="O23">
+      <c r="S23">
         <v>20</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>-45.560285714285719</v>
-      </c>
-      <c r="S23">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T23" t="s">
-        <v>99</v>
+      <c r="T23">
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>204.97</v>
@@ -2323,54 +2323,54 @@
         <v>205</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.857142857143117E-3</v>
       </c>
       <c r="I24">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J24" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>28.227223201936852</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
         <v>81.303818901470919</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>109.5310421034078</v>
       </c>
-      <c r="O24">
-        <v>40</v>
-      </c>
-      <c r="P24">
-        <v>40</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>6.857142857143117E-3</v>
-      </c>
       <c r="S24">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T24" t="s">
-        <v>101</v>
+        <v>40</v>
+      </c>
+      <c r="T24">
+        <v>40</v>
       </c>
       <c r="U24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>2937.12</v>
@@ -2391,54 +2391,54 @@
         <v>2185.8200000000002</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>-171.95628571428571</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>826.25569506486056</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J25" t="s">
+        <v>100</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>826.25569506486067</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>1818.941537001594</v>
       </c>
-      <c r="N25">
+      <c r="R25">
         <v>2645.1972320664549</v>
       </c>
-      <c r="O25">
-        <v>40</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="S25">
+        <v>40</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <v>20</v>
       </c>
-      <c r="R25">
-        <v>-171.95628571428571</v>
-      </c>
-      <c r="S25">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T25" t="s">
-        <v>99</v>
-      </c>
-      <c r="U25">
-        <v>7</v>
-      </c>
       <c r="V25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>967.37</v>
@@ -2459,54 +2459,54 @@
         <v>345.48</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>-57.04142857142859</v>
       </c>
       <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J26" t="s">
+        <v>100</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
         <v>1035.0390149343521</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
         <v>1035.0390149343521</v>
       </c>
-      <c r="O26">
+      <c r="S26">
         <v>20</v>
       </c>
-      <c r="P26">
+      <c r="T26">
         <v>20</v>
       </c>
-      <c r="Q26">
+      <c r="U26">
         <v>80</v>
       </c>
-      <c r="R26">
-        <v>-57.04142857142859</v>
-      </c>
-      <c r="S26">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T26" t="s">
-        <v>99</v>
-      </c>
-      <c r="U26">
-        <v>57</v>
-      </c>
       <c r="V26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>940.88</v>
@@ -2527,54 +2527,54 @@
         <v>266.8</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>-182.31142857142859</v>
       </c>
       <c r="I27">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J27" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>56</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>458.99227772961081</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>105.8139457703046</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
         <v>564.8062234999154</v>
       </c>
-      <c r="O27">
-        <v>40</v>
-      </c>
-      <c r="P27">
-        <v>40</v>
-      </c>
-      <c r="Q27">
-        <v>40</v>
-      </c>
-      <c r="R27">
-        <v>-182.31142857142859</v>
-      </c>
       <c r="S27">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T27" t="s">
-        <v>99</v>
+        <v>40</v>
+      </c>
+      <c r="T27">
+        <v>40</v>
       </c>
       <c r="U27">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="V27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>4545.8599999999997</v>
@@ -2595,54 +2595,54 @@
         <v>3918.33</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>-172.44514285714291</v>
       </c>
       <c r="I28">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J28" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>52</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>611.96822298266443</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
         <v>1546.8487952589951</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
         <v>2158.8170182416588</v>
       </c>
-      <c r="O28">
-        <v>40</v>
-      </c>
-      <c r="P28">
-        <v>40</v>
-      </c>
-      <c r="Q28">
+      <c r="S28">
+        <v>40</v>
+      </c>
+      <c r="T28">
+        <v>40</v>
+      </c>
+      <c r="U28">
         <v>60</v>
       </c>
-      <c r="R28">
-        <v>-172.44514285714291</v>
-      </c>
-      <c r="S28">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T28" t="s">
-        <v>99</v>
-      </c>
-      <c r="U28">
-        <v>52</v>
-      </c>
       <c r="V28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>1250.69</v>
@@ -2663,54 +2663,54 @@
         <v>965.18</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>37.624857142857117</v>
       </c>
       <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J29" t="s">
+        <v>101</v>
       </c>
       <c r="K29">
+        <v>51</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>505.92787882560759</v>
       </c>
-      <c r="L29">
+      <c r="P29">
         <v>1008.51554563389</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <v>1514.4434244594979</v>
       </c>
-      <c r="O29">
-        <v>40</v>
-      </c>
-      <c r="P29">
+      <c r="S29">
+        <v>40</v>
+      </c>
+      <c r="T29">
         <v>20</v>
       </c>
-      <c r="Q29">
+      <c r="U29">
         <v>60</v>
       </c>
-      <c r="R29">
-        <v>37.624857142857117</v>
-      </c>
-      <c r="S29">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T29" t="s">
-        <v>100</v>
-      </c>
-      <c r="U29">
-        <v>51</v>
-      </c>
       <c r="V29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>6737.43</v>
@@ -2731,54 +2731,54 @@
         <v>5150.3100000000004</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>-317.13171428571428</v>
       </c>
       <c r="I30">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J30" t="s">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>62</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>986.71792953810564</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
         <v>2661.1782866631902</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
         <v>3647.8962162012949</v>
       </c>
-      <c r="O30">
-        <v>40</v>
-      </c>
-      <c r="P30">
-        <v>40</v>
-      </c>
-      <c r="Q30">
+      <c r="S30">
+        <v>40</v>
+      </c>
+      <c r="T30">
+        <v>40</v>
+      </c>
+      <c r="U30">
         <v>80</v>
       </c>
-      <c r="R30">
-        <v>-317.13171428571428</v>
-      </c>
-      <c r="S30">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T30" t="s">
-        <v>99</v>
-      </c>
-      <c r="U30">
-        <v>62</v>
-      </c>
       <c r="V30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2799,16 +2799,16 @@
         <v>5.58</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.375714285714286</v>
       </c>
       <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J31" t="s">
+        <v>101</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -2826,27 +2826,27 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>0.375714285714286</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T31" t="s">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2867,16 +2867,16 @@
         <v>450</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>63.958571428571418</v>
       </c>
       <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J32" t="s">
+        <v>101</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -2894,27 +2894,27 @@
         <v>0</v>
       </c>
       <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>20</v>
       </c>
-      <c r="R32">
-        <v>63.958571428571418</v>
-      </c>
-      <c r="S32">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T32" t="s">
-        <v>100</v>
+      <c r="T32">
+        <v>20</v>
       </c>
       <c r="U32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>539.88</v>
@@ -2935,16 +2935,16 @@
         <v>267.69</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>-42.543142857142847</v>
       </c>
       <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J33" t="s">
+        <v>100</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -2962,27 +2962,27 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>-42.543142857142847</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T33" t="s">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="T33">
+        <v>20</v>
       </c>
       <c r="U33">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="V33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J34" t="s">
+        <v>102</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3036,21 +3036,21 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T34" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>5307.36</v>
@@ -3071,54 +3071,54 @@
         <v>7155.75</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>455.62714285714293</v>
       </c>
       <c r="I35">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35">
+        <v>12</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>1336.6773768504249</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
         <v>793.35442263907225</v>
       </c>
-      <c r="L35">
+      <c r="P35">
         <v>2512.5562215899481</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
         <v>4642.5880210794458</v>
       </c>
-      <c r="O35">
+      <c r="S35">
         <v>60</v>
       </c>
-      <c r="P35">
-        <v>40</v>
-      </c>
-      <c r="Q35">
-        <v>40</v>
-      </c>
-      <c r="R35">
-        <v>455.62714285714293</v>
-      </c>
-      <c r="S35">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T35" t="s">
-        <v>100</v>
+      <c r="T35">
+        <v>40</v>
       </c>
       <c r="U35">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="V35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>264.38</v>
@@ -3139,54 +3139,54 @@
         <v>515</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>43.088571428571427</v>
       </c>
       <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J36" t="s">
+        <v>101</v>
       </c>
       <c r="K36">
+        <v>9</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
         <v>55.400803961796697</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>401.44238050049353</v>
       </c>
-      <c r="N36">
+      <c r="R36">
         <v>456.8431844622902</v>
       </c>
-      <c r="O36">
-        <v>40</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>43.088571428571427</v>
-      </c>
       <c r="S36">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T36" t="s">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3207,16 +3207,16 @@
         <v>4000</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>928.38142857142839</v>
       </c>
       <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J37" t="s">
+        <v>101</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3234,27 +3234,27 @@
         <v>0</v>
       </c>
       <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>20</v>
       </c>
-      <c r="R37">
-        <v>928.38142857142839</v>
-      </c>
-      <c r="S37">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T37" t="s">
-        <v>100</v>
+      <c r="T37">
+        <v>20</v>
       </c>
       <c r="U37">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="V37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>5571.74</v>
@@ -3275,54 +3275,54 @@
         <v>11670.75</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1427.0971428571429</v>
       </c>
       <c r="I38">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J38" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
         <v>1108.7061843350721</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
         <v>848.75522660086881</v>
       </c>
-      <c r="L38">
+      <c r="P38">
         <v>6666.5817209201132</v>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
         <v>8624.043131856055</v>
       </c>
-      <c r="O38">
+      <c r="S38">
         <v>60</v>
       </c>
-      <c r="P38">
-        <v>40</v>
-      </c>
-      <c r="Q38">
+      <c r="T38">
+        <v>40</v>
+      </c>
+      <c r="U38">
         <v>60</v>
       </c>
-      <c r="R38">
-        <v>1427.0971428571429</v>
-      </c>
-      <c r="S38">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T38" t="s">
-        <v>100</v>
-      </c>
-      <c r="U38">
-        <v>5</v>
-      </c>
       <c r="V38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3346,13 +3346,13 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J39" t="s">
+        <v>102</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3376,21 +3376,21 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T39" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>76.099999999999994</v>
@@ -3411,54 +3411,54 @@
         <v>64.959999999999994</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2.7428571428571781E-2</v>
       </c>
       <c r="I40">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J40" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40">
+        <v>34</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
         <v>16.52002969052737</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
         <v>58.075038847155277</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
         <v>74.59506853768265</v>
       </c>
-      <c r="O40">
-        <v>40</v>
-      </c>
-      <c r="P40">
-        <v>40</v>
-      </c>
-      <c r="Q40">
+      <c r="S40">
+        <v>40</v>
+      </c>
+      <c r="T40">
+        <v>40</v>
+      </c>
+      <c r="U40">
         <v>100</v>
       </c>
-      <c r="R40">
-        <v>2.7428571428571781E-2</v>
-      </c>
-      <c r="S40">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T40" t="s">
-        <v>100</v>
-      </c>
-      <c r="U40">
-        <v>34</v>
-      </c>
       <c r="V40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41">
         <v>157.29</v>
@@ -3479,54 +3479,54 @@
         <v>157.30000000000001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2.2857142857187038E-3</v>
       </c>
       <c r="I41">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J41" t="s">
+        <v>102</v>
+      </c>
+      <c r="K41">
+        <v>21</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
         <v>21.66102325917279</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
         <v>62.391842317133481</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
         <v>84.052865576306274</v>
       </c>
-      <c r="O41">
-        <v>40</v>
-      </c>
-      <c r="P41">
-        <v>40</v>
-      </c>
-      <c r="Q41">
+      <c r="S41">
+        <v>40</v>
+      </c>
+      <c r="T41">
+        <v>40</v>
+      </c>
+      <c r="U41">
         <v>20</v>
       </c>
-      <c r="R41">
-        <v>2.2857142857187038E-3</v>
-      </c>
-      <c r="S41">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T41" t="s">
-        <v>101</v>
-      </c>
-      <c r="U41">
-        <v>21</v>
-      </c>
       <c r="V41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>233.39</v>
@@ -3547,54 +3547,54 @@
         <v>222.26</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2.971428571428715E-2</v>
       </c>
       <c r="I42">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J42" t="s">
+        <v>101</v>
+      </c>
+      <c r="K42">
+        <v>33</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
         <v>38.181052949700188</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
         <v>120.46688116428879</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
         <v>158.64793411398901</v>
       </c>
-      <c r="O42">
-        <v>40</v>
-      </c>
-      <c r="P42">
-        <v>40</v>
-      </c>
-      <c r="Q42">
+      <c r="S42">
+        <v>40</v>
+      </c>
+      <c r="T42">
+        <v>40</v>
+      </c>
+      <c r="U42">
         <v>100</v>
       </c>
-      <c r="R42">
-        <v>2.971428571428715E-2</v>
-      </c>
-      <c r="S42">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T42" t="s">
-        <v>100</v>
-      </c>
-      <c r="U42">
-        <v>33</v>
-      </c>
       <c r="V42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>5998.14</v>
@@ -3615,54 +3615,54 @@
         <v>1783.93</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>-673.62942857142855</v>
       </c>
       <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>1186.0664500876139</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J43" t="s">
+        <v>100</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1186.0664500876151</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
         <v>594.80347774859342</v>
       </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
         <v>1780.869927836208</v>
       </c>
-      <c r="O43">
-        <v>40</v>
-      </c>
-      <c r="P43">
+      <c r="S43">
+        <v>40</v>
+      </c>
+      <c r="T43">
         <v>20</v>
       </c>
-      <c r="Q43">
-        <v>40</v>
-      </c>
-      <c r="R43">
-        <v>-673.62942857142855</v>
-      </c>
-      <c r="S43">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T43" t="s">
-        <v>99</v>
-      </c>
       <c r="U43">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="V43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>579.63</v>
@@ -3683,16 +3683,16 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>-118.0014285714286</v>
       </c>
       <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J44" t="s">
+        <v>100</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -3710,27 +3710,27 @@
         <v>0</v>
       </c>
       <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
         <v>20</v>
       </c>
-      <c r="R44">
-        <v>-118.0014285714286</v>
-      </c>
-      <c r="S44">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T44" t="s">
-        <v>99</v>
-      </c>
-      <c r="U44">
-        <v>54</v>
-      </c>
       <c r="V44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>3691.42</v>
@@ -3751,54 +3751,54 @@
         <v>5925.37</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>440.18828571428588</v>
       </c>
       <c r="I45">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J45" t="s">
+        <v>101</v>
+      </c>
+      <c r="K45">
+        <v>55</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
         <v>3102.269936927813</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
         <v>1643.0615210860301</v>
       </c>
-      <c r="L45">
+      <c r="P45">
         <v>2097.8852550436141</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
         <v>6843.2167130574562</v>
       </c>
-      <c r="O45">
+      <c r="S45">
         <v>60</v>
       </c>
-      <c r="P45">
-        <v>40</v>
-      </c>
-      <c r="Q45">
+      <c r="T45">
+        <v>40</v>
+      </c>
+      <c r="U45">
         <v>60</v>
       </c>
-      <c r="R45">
-        <v>440.18828571428588</v>
-      </c>
-      <c r="S45">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T45" t="s">
-        <v>100</v>
-      </c>
-      <c r="U45">
-        <v>55</v>
-      </c>
       <c r="V45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>10269.19</v>
@@ -3819,54 +3819,54 @@
         <v>7709.3</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>-351.44257142857151</v>
       </c>
       <c r="I46">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J46" t="s">
+        <v>100</v>
+      </c>
+      <c r="K46">
+        <v>73</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
         <v>284.13046120455692</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
         <v>2572.0095317204709</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
         <v>2856.1399929250279</v>
       </c>
-      <c r="O46">
-        <v>40</v>
-      </c>
-      <c r="P46">
-        <v>40</v>
-      </c>
-      <c r="Q46">
+      <c r="S46">
+        <v>40</v>
+      </c>
+      <c r="T46">
+        <v>40</v>
+      </c>
+      <c r="U46">
         <v>20</v>
       </c>
-      <c r="R46">
-        <v>-351.44257142857151</v>
-      </c>
-      <c r="S46">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T46" t="s">
-        <v>99</v>
-      </c>
-      <c r="U46">
-        <v>73</v>
-      </c>
       <c r="V46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47">
         <v>396.58</v>
@@ -3890,13 +3890,13 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J47" t="s">
+        <v>102</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -3920,21 +3920,21 @@
         <v>0</v>
       </c>
       <c r="S47">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T47" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J48" t="s">
+        <v>102</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -3988,21 +3988,21 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T48" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>1488.66</v>
@@ -4023,54 +4023,54 @@
         <v>903.73</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1.921142857142847</v>
       </c>
       <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>57.044631388696871</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J49" t="s">
+        <v>101</v>
       </c>
       <c r="K49">
+        <v>58</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>57.044631388697098</v>
+      </c>
+      <c r="O49">
         <v>383.70250119473781</v>
       </c>
-      <c r="L49">
+      <c r="P49">
         <v>722.1453955430286</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>1162.892528126463</v>
-      </c>
-      <c r="O49">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>1162.892528126464</v>
+      </c>
+      <c r="S49">
         <v>60</v>
       </c>
-      <c r="P49">
+      <c r="T49">
         <v>20</v>
       </c>
-      <c r="Q49">
-        <v>40</v>
-      </c>
-      <c r="R49">
-        <v>1.921142857142847</v>
-      </c>
-      <c r="S49">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T49" t="s">
-        <v>100</v>
-      </c>
       <c r="U49">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="V49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>578.99</v>
@@ -4091,54 +4091,54 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>20.001428571428569</v>
       </c>
       <c r="I50">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J50" t="s">
+        <v>101</v>
+      </c>
+      <c r="K50">
+        <v>63</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
         <v>338.9649854207417</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
       <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
         <v>338.9649854207417</v>
       </c>
-      <c r="O50">
+      <c r="S50">
+        <v>40</v>
+      </c>
+      <c r="T50">
+        <v>40</v>
+      </c>
+      <c r="U50">
         <v>20</v>
       </c>
-      <c r="P50">
-        <v>20</v>
-      </c>
-      <c r="Q50">
-        <v>60</v>
-      </c>
-      <c r="R50">
-        <v>20.001428571428569</v>
-      </c>
-      <c r="S50">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T50" t="s">
-        <v>100</v>
-      </c>
-      <c r="U50">
-        <v>63</v>
-      </c>
       <c r="V50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51">
         <v>2067.65</v>
@@ -4159,54 +4159,54 @@
         <v>903.73</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>21.922571428571398</v>
       </c>
       <c r="I51">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J51" t="s">
+        <v>101</v>
+      </c>
+      <c r="K51">
+        <v>66</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
         <v>8.0241969726532716</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
         <v>3038.105395543028</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
         <v>3046.129592515681</v>
       </c>
-      <c r="O51">
-        <v>40</v>
-      </c>
-      <c r="P51">
-        <v>40</v>
-      </c>
-      <c r="Q51">
+      <c r="S51">
+        <v>40</v>
+      </c>
+      <c r="T51">
+        <v>40</v>
+      </c>
+      <c r="U51">
         <v>60</v>
       </c>
-      <c r="R51">
-        <v>21.922571428571398</v>
-      </c>
-      <c r="S51">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T51" t="s">
-        <v>100</v>
-      </c>
-      <c r="U51">
-        <v>66</v>
-      </c>
       <c r="V51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>799</v>
@@ -4227,54 +4227,54 @@
         <v>200</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>-85.571428571428598</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J52" t="s">
+        <v>100</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
         <v>79.32079892826431</v>
       </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
         <v>79.32079892826431</v>
       </c>
-      <c r="O52">
+      <c r="S52">
         <v>20</v>
       </c>
-      <c r="P52">
+      <c r="T52">
         <v>20</v>
       </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>-85.571428571428598</v>
-      </c>
-      <c r="S52">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T52" t="s">
-        <v>99</v>
-      </c>
       <c r="U52">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53">
         <v>325.63</v>
@@ -4295,54 +4295,54 @@
         <v>47</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>-60.457142857142863</v>
       </c>
       <c r="I53">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J53" t="s">
+        <v>100</v>
+      </c>
+      <c r="K53">
+        <v>48</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
         <v>0.69378538930919831</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
         <v>46.159489957373168</v>
       </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
         <v>46.853275346682373</v>
       </c>
-      <c r="O53">
-        <v>40</v>
-      </c>
-      <c r="P53">
-        <v>40</v>
-      </c>
-      <c r="Q53">
+      <c r="S53">
+        <v>40</v>
+      </c>
+      <c r="T53">
+        <v>40</v>
+      </c>
+      <c r="U53">
         <v>80</v>
       </c>
-      <c r="R53">
-        <v>-60.457142857142863</v>
-      </c>
-      <c r="S53">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T53" t="s">
-        <v>99</v>
-      </c>
-      <c r="U53">
-        <v>48</v>
-      </c>
       <c r="V53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4366,13 +4366,13 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J54" t="s">
+        <v>102</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -4396,21 +4396,21 @@
         <v>0</v>
       </c>
       <c r="S54">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T54" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
       </c>
       <c r="U54">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4431,16 +4431,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>6.2285714285714312E-2</v>
       </c>
       <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J55" t="s">
+        <v>101</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -4458,27 +4458,27 @@
         <v>0</v>
       </c>
       <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
         <v>20</v>
       </c>
-      <c r="R55">
-        <v>6.2285714285714312E-2</v>
-      </c>
-      <c r="S55">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T55" t="s">
-        <v>100</v>
+      <c r="T55">
+        <v>20</v>
       </c>
       <c r="U55">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4499,16 +4499,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2.776285714285712</v>
       </c>
       <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J56" t="s">
+        <v>101</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -4526,27 +4526,27 @@
         <v>0</v>
       </c>
       <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
         <v>20</v>
       </c>
-      <c r="R56">
-        <v>2.776285714285712</v>
-      </c>
-      <c r="S56">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T56" t="s">
-        <v>100</v>
+      <c r="T56">
+        <v>20</v>
       </c>
       <c r="U56">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57">
         <v>1333.34</v>
@@ -4567,16 +4567,16 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>-209.52485714285709</v>
       </c>
       <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J57" t="s">
+        <v>100</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -4594,27 +4594,27 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>-209.52485714285709</v>
+        <v>0</v>
       </c>
       <c r="S57">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T57" t="s">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="T57">
+        <v>20</v>
       </c>
       <c r="U57">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4638,13 +4638,13 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J58" t="s">
+        <v>102</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -4662,27 +4662,27 @@
         <v>0</v>
       </c>
       <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
         <v>20</v>
       </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T58" t="s">
-        <v>101</v>
+      <c r="T58">
+        <v>20</v>
       </c>
       <c r="U58">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4703,54 +4703,54 @@
         <v>9972</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1519.542857142857</v>
       </c>
       <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J59" t="s">
+        <v>101</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
         <v>8036.2793476084134</v>
       </c>
-      <c r="N59">
+      <c r="R59">
         <v>8036.2793476084134</v>
       </c>
-      <c r="O59">
+      <c r="S59">
+        <v>40</v>
+      </c>
+      <c r="T59">
         <v>20</v>
       </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>1519.542857142857</v>
-      </c>
-      <c r="S59">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T59" t="s">
-        <v>100</v>
-      </c>
       <c r="U59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4771,54 +4771,54 @@
         <v>9972</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1542.2194285714279</v>
       </c>
       <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J60" t="s">
+        <v>101</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
       <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>7574.0823658424206</v>
       </c>
-      <c r="N60">
+      <c r="R60">
         <v>7574.0823658424206</v>
       </c>
-      <c r="O60">
+      <c r="S60">
+        <v>40</v>
+      </c>
+      <c r="T60">
         <v>20</v>
       </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>1542.2194285714279</v>
-      </c>
-      <c r="S60">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T60" t="s">
-        <v>100</v>
-      </c>
       <c r="U60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V60" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61">
         <v>2648.43</v>
@@ -4839,54 +4839,54 @@
         <v>937.94</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>-103.5731428571428</v>
       </c>
       <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>831.79771446592167</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J61" t="s">
+        <v>100</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>831.79771446592179</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
         <v>2475.11526085592</v>
       </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
         <v>3306.9129753218422</v>
       </c>
-      <c r="O61">
-        <v>40</v>
-      </c>
-      <c r="P61">
+      <c r="S61">
+        <v>40</v>
+      </c>
+      <c r="T61">
         <v>20</v>
       </c>
-      <c r="Q61">
+      <c r="U61">
         <v>60</v>
       </c>
-      <c r="R61">
-        <v>-103.5731428571428</v>
-      </c>
-      <c r="S61">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T61" t="s">
-        <v>99</v>
-      </c>
-      <c r="U61">
-        <v>59</v>
-      </c>
       <c r="V61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62">
         <v>380.77</v>
@@ -4907,54 +4907,54 @@
         <v>281.02999999999997</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>-11.130571428571431</v>
       </c>
       <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J62" t="s">
+        <v>100</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
         <v>166.89356973815251</v>
       </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
         <v>166.89356973815251</v>
       </c>
-      <c r="O62">
+      <c r="S62">
         <v>20</v>
       </c>
-      <c r="P62">
+      <c r="T62">
         <v>20</v>
       </c>
-      <c r="Q62">
+      <c r="U62">
         <v>60</v>
       </c>
-      <c r="R62">
-        <v>-11.130571428571431</v>
-      </c>
-      <c r="S62">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T62" t="s">
-        <v>99</v>
-      </c>
-      <c r="U62">
-        <v>40</v>
-      </c>
       <c r="V62" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63">
         <v>172</v>
@@ -4978,13 +4978,13 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J63" t="s">
+        <v>102</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -5008,21 +5008,21 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T63" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="V63" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64">
         <v>700</v>
@@ -5043,54 +5043,54 @@
         <v>900</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>38.571428571428569</v>
       </c>
       <c r="I64">
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J64" t="s">
+        <v>101</v>
+      </c>
+      <c r="K64">
+        <v>11</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
         <v>96.399747481854888</v>
       </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
       <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
         <v>96.399747481854888</v>
       </c>
-      <c r="O64">
+      <c r="S64">
+        <v>40</v>
+      </c>
+      <c r="T64">
+        <v>40</v>
+      </c>
+      <c r="U64">
         <v>20</v>
       </c>
-      <c r="P64">
-        <v>20</v>
-      </c>
-      <c r="Q64">
-        <v>40</v>
-      </c>
-      <c r="R64">
-        <v>38.571428571428569</v>
-      </c>
-      <c r="S64">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T64" t="s">
-        <v>100</v>
-      </c>
-      <c r="U64">
-        <v>11</v>
-      </c>
       <c r="V64" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -5114,13 +5114,13 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J65" t="s">
+        <v>102</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -5144,21 +5144,21 @@
         <v>0</v>
       </c>
       <c r="S65">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T65" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
       </c>
       <c r="U65">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="V65" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66">
         <v>100</v>
@@ -5182,13 +5182,13 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J66" t="s">
+        <v>102</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -5212,21 +5212,21 @@
         <v>0</v>
       </c>
       <c r="S66">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T66" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="V66" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67">
         <v>6967.81</v>
@@ -5250,13 +5250,13 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J67" t="s">
+        <v>102</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -5280,21 +5280,21 @@
         <v>0</v>
       </c>
       <c r="S67">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T67" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
       </c>
       <c r="U67">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="V67" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -5318,13 +5318,13 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J68" t="s">
+        <v>102</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -5348,21 +5348,21 @@
         <v>0</v>
       </c>
       <c r="S68">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T68" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
       </c>
       <c r="U68">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="V68" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69">
         <v>7067.81</v>
@@ -5383,16 +5383,16 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>-1003.972857142857</v>
       </c>
       <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J69" t="s">
+        <v>100</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -5413,24 +5413,24 @@
         <v>0</v>
       </c>
       <c r="R69">
-        <v>-1003.972857142857</v>
+        <v>0</v>
       </c>
       <c r="S69">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T69" t="s">
-        <v>99</v>
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
       </c>
       <c r="U69">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="V69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B70">
         <v>125</v>
@@ -5454,13 +5454,13 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J70" t="s">
+        <v>102</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -5484,21 +5484,21 @@
         <v>0</v>
       </c>
       <c r="S70">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T70" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
       </c>
       <c r="U70">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="V70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71">
         <v>14421.21</v>
@@ -5519,54 +5519,54 @@
         <v>9949.43</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>-756.2088571428568</v>
       </c>
       <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J71" t="s">
+        <v>100</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
         <v>4067.1665410372411</v>
       </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
         <v>4067.1665410372411</v>
       </c>
-      <c r="O71">
+      <c r="S71">
         <v>20</v>
       </c>
-      <c r="P71">
+      <c r="T71">
         <v>20</v>
       </c>
-      <c r="Q71">
-        <v>40</v>
-      </c>
-      <c r="R71">
-        <v>-756.2088571428568</v>
-      </c>
-      <c r="S71">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T71" t="s">
-        <v>99</v>
-      </c>
       <c r="U71">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="V71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72">
         <v>14546.21</v>
@@ -5587,54 +5587,54 @@
         <v>9949.43</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>-774.06600000000003</v>
       </c>
       <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J72" t="s">
+        <v>100</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
         <v>4067.1665410372411</v>
       </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
         <v>4067.1665410372411</v>
       </c>
-      <c r="O72">
+      <c r="S72">
         <v>20</v>
       </c>
-      <c r="P72">
+      <c r="T72">
         <v>20</v>
       </c>
-      <c r="Q72">
-        <v>40</v>
-      </c>
-      <c r="R72">
-        <v>-774.06600000000003</v>
-      </c>
-      <c r="S72">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T72" t="s">
-        <v>99</v>
-      </c>
       <c r="U72">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="V72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -5658,13 +5658,13 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J73" t="s">
+        <v>102</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -5688,21 +5688,21 @@
         <v>0</v>
       </c>
       <c r="S73">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T73" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
       </c>
       <c r="U73">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="V73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74">
         <v>604.98</v>
@@ -5723,16 +5723,16 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>-95.068285714285736</v>
       </c>
       <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J74" t="s">
+        <v>100</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -5750,27 +5750,27 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>-95.068285714285736</v>
+        <v>0</v>
       </c>
       <c r="S74">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T74" t="s">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="T74">
+        <v>20</v>
       </c>
       <c r="U74">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="V74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B75">
         <v>211.54</v>
@@ -5791,16 +5791,16 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>-33.241999999999997</v>
       </c>
       <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J75" t="s">
+        <v>100</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -5818,27 +5818,27 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>-33.241999999999997</v>
+        <v>0</v>
       </c>
       <c r="S75">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T75" t="s">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="T75">
+        <v>20</v>
       </c>
       <c r="U75">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="V75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76">
         <v>3193.66</v>
@@ -5859,16 +5859,16 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>-501.86085714285713</v>
       </c>
       <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J76" t="s">
+        <v>100</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -5886,27 +5886,27 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>-501.86085714285713</v>
+        <v>0</v>
       </c>
       <c r="S76">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T76" t="s">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="T76">
+        <v>20</v>
       </c>
       <c r="U76">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="V76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B77">
         <v>4010.18</v>
@@ -5927,16 +5927,16 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>-630.17114285714274</v>
       </c>
       <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J77" t="s">
+        <v>100</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -5954,27 +5954,27 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>-630.17114285714274</v>
+        <v>0</v>
       </c>
       <c r="S77">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T77" t="s">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="T77">
+        <v>20</v>
       </c>
       <c r="U77">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="V77" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -5998,13 +5998,13 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J78" t="s">
+        <v>102</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -6028,21 +6028,21 @@
         <v>0</v>
       </c>
       <c r="S78">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T78" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
       </c>
       <c r="U78">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="V78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B79">
         <v>12470.41</v>
@@ -6063,49 +6063,49 @@
         <v>32134.720000000001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>-1502.6711428571471</v>
       </c>
       <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>16995.90241923985</v>
+        <v>-3327.4642857142871</v>
+      </c>
+      <c r="J79" t="s">
+        <v>100</v>
       </c>
       <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>16995.902419239861</v>
+      </c>
+      <c r="O79">
         <v>21423.605158556711</v>
       </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>38419.507577796561</v>
-      </c>
-      <c r="O79">
-        <v>40</v>
-      </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
+        <v>117036.4585676721</v>
+      </c>
+      <c r="R79">
+        <v>155455.96614546861</v>
+      </c>
+      <c r="S79">
+        <v>40</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
         <v>20</v>
       </c>
-      <c r="R79">
-        <v>-1502.6711428571471</v>
-      </c>
-      <c r="S79">
-        <v>-3327.4642857142871</v>
-      </c>
-      <c r="T79" t="s">
-        <v>99</v>
-      </c>
-      <c r="U79">
-        <v>1</v>
-      </c>
       <c r="V79" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
